--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1197693.507583643</v>
+        <v>1142741.618299548</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013171</v>
+        <v>408938.3872013176</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8265202.843927102</v>
+        <v>8265202.843927099</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>256.3631165549356</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.54038365103172</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>174.8699778514639</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
@@ -1505,7 +1505,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>65.59641470936603</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.376832222376923</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>48.55910564447399</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.16117168640664</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>185.5090622027478</v>
@@ -1660,22 +1660,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>60.57545545242655</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>96.91289937729543</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>147.9743432409925</v>
@@ -1706,7 +1706,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>59.42410779909735</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>8.916258666856805</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.376832222376867</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>134.75492935855</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>87.6331932661291</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>3.329915919762344</v>
+        <v>22.25079243820127</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -1988,7 +1988,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.226885210985937</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>301.1362812012891</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>301.2605853848282</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>117.1465895446072</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>230.2726855502447</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>50.00010435294871</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>52.42857711587121</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>132.283662172466</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>186.7602972398833</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>70.40901148394875</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>115.1070645654647</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
@@ -2462,10 +2462,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>76.5351950996143</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>7.226885210985944</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>249.2860788611581</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>173.831582391641</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -2645,16 +2645,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>32.61759603792872</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>30.86520320057492</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
@@ -2696,7 +2696,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>129.482578516696</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>50.0001043529487</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>328.6798195995831</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>271.2966335136364</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,16 +2873,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>83.24557388403079</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>95.44905025579318</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>75.61813689207872</v>
+        <v>52.42857711587136</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>161.1628163773358</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>183.6656695010794</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3116,10 +3116,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>16.20474557182462</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886883</v>
+        <v>12.40511558138276</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3164,10 +3164,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>129.482578516696</v>
       </c>
       <c r="V34" t="n">
-        <v>8.916258666857136</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>133.5528404712022</v>
       </c>
       <c r="X35" t="n">
-        <v>291.2640402707614</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>160.826902708162</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>134.0730622666335</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>8.916258666857072</v>
+        <v>8.916258666857129</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213336334641</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>140.2491341557725</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>25.513874016759</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>135.006085569397</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -3596,13 +3596,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886883</v>
+        <v>39.11895212463715</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>77.52012824943834</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>123.1434003800102</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>259.6485743062649</v>
+        <v>371.8309553363534</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>21.50295648426229</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>116.5857130733376</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>76.53519509961444</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.6762241535588</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>266.7368345630844</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>114.57403222401</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>38.45882765109264</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
         <v>237.1773944157285</v>
@@ -4121,10 +4121,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>131.0804113283489</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.53519509961447</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1497.385195807267</v>
+        <v>950.6716949206702</v>
       </c>
       <c r="C11" t="n">
-        <v>1497.385195807267</v>
+        <v>596.9287682730148</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.385195807267</v>
+        <v>596.9287682730148</v>
       </c>
       <c r="E11" t="n">
-        <v>1122.153971502584</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="F11" t="n">
-        <v>714.8820021692372</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G11" t="n">
-        <v>293.2672958392286</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H11" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193745</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389714</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292772</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R11" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.732642722259</v>
+        <v>1691.954477418185</v>
       </c>
       <c r="T11" t="n">
-        <v>1497.385195807267</v>
+        <v>1691.954477418185</v>
       </c>
       <c r="U11" t="n">
-        <v>1497.385195807267</v>
+        <v>1691.954477418185</v>
       </c>
       <c r="V11" t="n">
-        <v>1497.385195807267</v>
+        <v>1691.954477418185</v>
       </c>
       <c r="W11" t="n">
-        <v>1497.385195807267</v>
+        <v>1691.954477418185</v>
       </c>
       <c r="X11" t="n">
-        <v>1497.385195807267</v>
+        <v>1328.537594292219</v>
       </c>
       <c r="Y11" t="n">
-        <v>1497.385195807267</v>
+        <v>1328.537594292219</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>544.9347596432057</v>
+        <v>1056.342451848116</v>
       </c>
       <c r="C12" t="n">
-        <v>355.5224853761694</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D12" t="n">
-        <v>194.7423691372011</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E12" t="n">
-        <v>194.7423691372011</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444518</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K12" t="n">
-        <v>112.3287381944637</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L12" t="n">
-        <v>395.233870249842</v>
+        <v>478.3196054885459</v>
       </c>
       <c r="M12" t="n">
-        <v>770.1254798029036</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N12" t="n">
-        <v>1173.359244302915</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O12" t="n">
-        <v>1486.492278349809</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P12" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007118</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U12" t="n">
-        <v>1168.619300018117</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="V12" t="n">
-        <v>1168.619300018117</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="W12" t="n">
-        <v>1168.619300018117</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="X12" t="n">
-        <v>949.1113056348131</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.4706125701407</v>
+        <v>1234.878304775051</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="E13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="F13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="G13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321047</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="I13" t="n">
         <v>109.6523243044814</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514567</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="S13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="T13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="U13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="V13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="W13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="X13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9755581809703</v>
+        <v>158.7019259655662</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>557.3318417915689</v>
+        <v>649.5356560421855</v>
       </c>
       <c r="C14" t="n">
-        <v>557.3318417915689</v>
+        <v>649.5356560421855</v>
       </c>
       <c r="D14" t="n">
-        <v>557.3318417915689</v>
+        <v>649.5356560421855</v>
       </c>
       <c r="E14" t="n">
-        <v>557.3318417915689</v>
+        <v>649.5356560421855</v>
       </c>
       <c r="F14" t="n">
-        <v>557.3318417915689</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H14" t="n">
         <v>221.6975439683318</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K14" t="n">
         <v>253.8975067193752</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.54859321015</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.201146295158</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="U14" t="n">
-        <v>942.6401640759917</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="V14" t="n">
-        <v>618.5191705313937</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="W14" t="n">
-        <v>557.3318417915689</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="X14" t="n">
-        <v>557.3318417915689</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="Y14" t="n">
-        <v>557.3318417915689</v>
+        <v>1027.401555413734</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>482.8268917365245</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="C15" t="n">
-        <v>482.8268917365245</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D15" t="n">
-        <v>482.8268917365245</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8268917365245</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F15" t="n">
         <v>384.9350741837009</v>
@@ -5354,55 +5354,55 @@
         <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>195.4144734331679</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L15" t="n">
-        <v>478.3196054885461</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M15" t="n">
-        <v>853.2112150416077</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N15" t="n">
         <v>1256.444979541619</v>
       </c>
       <c r="O15" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P15" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007118</v>
+        <v>1567.934516128352</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775052</v>
+        <v>1567.934516128352</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025991</v>
+        <v>1567.934516128352</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062332</v>
+        <v>1324.854798031987</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365245</v>
+        <v>1324.854798031987</v>
       </c>
       <c r="X15" t="n">
-        <v>482.8268917365245</v>
+        <v>1105.346803648683</v>
       </c>
       <c r="Y15" t="n">
-        <v>482.8268917365245</v>
+        <v>879.7061105840106</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="E16" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R16" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S16" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T16" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="U16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="V16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="W16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="X16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9755581809702</v>
+        <v>43.3209747401591</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722259</v>
+        <v>951.7197055542948</v>
       </c>
       <c r="C17" t="n">
-        <v>1579.616552461097</v>
+        <v>951.7197055542948</v>
       </c>
       <c r="D17" t="n">
-        <v>1238.432552822484</v>
+        <v>951.7197055542948</v>
       </c>
       <c r="E17" t="n">
-        <v>863.2013285178008</v>
+        <v>951.7197055542948</v>
       </c>
       <c r="F17" t="n">
-        <v>455.9293591844538</v>
+        <v>544.4477362209478</v>
       </c>
       <c r="G17" t="n">
-        <v>34.31465285444518</v>
+        <v>122.8330298909392</v>
       </c>
       <c r="H17" t="n">
-        <v>34.31465285444518</v>
+        <v>122.8330298909392</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193758</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292789</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722259</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.67820428854856</v>
+        <v>798.539392858055</v>
       </c>
       <c r="C18" t="n">
-        <v>37.67820428854856</v>
+        <v>609.1271185910186</v>
       </c>
       <c r="D18" t="n">
-        <v>37.67820428854856</v>
+        <v>448.3470023520504</v>
       </c>
       <c r="E18" t="n">
-        <v>34.31465285444518</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F18" t="n">
-        <v>34.31465285444518</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025872</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K18" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>498.4142537443597</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M18" t="n">
-        <v>873.3058632974213</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520717</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.953100567611</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007118</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025991</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062332</v>
+        <v>1293.578655192436</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365245</v>
+        <v>1024.180085922727</v>
       </c>
       <c r="X18" t="n">
-        <v>263.3188973532209</v>
+        <v>1024.180085922727</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.67820428854856</v>
+        <v>798.539392858055</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="C19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="D19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="E19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="F19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514575</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800222</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T19" t="n">
-        <v>334.8576753800222</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U19" t="n">
-        <v>334.8576753800222</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V19" t="n">
-        <v>334.8576753800222</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.61453690594612</v>
+        <v>108.4089998231972</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>692.2356413215846</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="C20" t="n">
-        <v>338.4927146739292</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D20" t="n">
-        <v>338.4927146739292</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E20" t="n">
         <v>34.31465285444516</v>
@@ -5752,25 +5752,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K20" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
         <v>1715.732642722258</v>
@@ -5791,13 +5791,13 @@
         <v>1033.545200741551</v>
       </c>
       <c r="W20" t="n">
-        <v>692.2356413215846</v>
+        <v>1033.545200741551</v>
       </c>
       <c r="X20" t="n">
-        <v>692.2356413215846</v>
+        <v>1033.545200741551</v>
       </c>
       <c r="Y20" t="n">
-        <v>692.2356413215846</v>
+        <v>729.2415791407141</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>867.9669970985514</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C21" t="n">
-        <v>678.5547228315151</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D21" t="n">
-        <v>517.7746065925468</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E21" t="n">
-        <v>344.2114027139612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F21" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G21" t="n">
         <v>34.31465285444516</v>
@@ -5831,16 +5831,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3287381944633</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2338702498415</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M21" t="n">
-        <v>770.1254798029031</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N21" t="n">
         <v>1173.359244302914</v>
@@ -5855,28 +5855,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007117</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U21" t="n">
-        <v>1448.884598007117</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V21" t="n">
-        <v>1205.804879910751</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.804879910751</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X21" t="n">
-        <v>986.2968855274476</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y21" t="n">
-        <v>986.2968855274476</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514574</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809702</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>84.81980876651457</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>84.81980876651457</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>84.81980876651457</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U22" t="n">
-        <v>84.81980876651457</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>816.8178464924752</v>
+        <v>925.1835177879595</v>
       </c>
       <c r="C23" t="n">
-        <v>816.8178464924752</v>
+        <v>925.1835177879595</v>
       </c>
       <c r="D23" t="n">
-        <v>816.8178464924752</v>
+        <v>925.1835177879595</v>
       </c>
       <c r="E23" t="n">
-        <v>441.5866221877922</v>
+        <v>925.1835177879595</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5989,22 +5989,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L23" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M23" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P23" t="n">
         <v>1650.639799716936</v>
@@ -6016,25 +6016,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U23" t="n">
-        <v>1527.085877833487</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V23" t="n">
-        <v>1202.964884288889</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="W23" t="n">
-        <v>1202.964884288889</v>
+        <v>925.1835177879595</v>
       </c>
       <c r="X23" t="n">
-        <v>1202.964884288889</v>
+        <v>925.1835177879595</v>
       </c>
       <c r="Y23" t="n">
-        <v>816.8178464924752</v>
+        <v>925.1835177879595</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>678.5547228315151</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C24" t="n">
-        <v>678.5547228315151</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>517.7746065925468</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>344.2114027139612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
         <v>34.31465285444516</v>
@@ -6074,13 +6074,13 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
-        <v>478.3196054885461</v>
+        <v>304.6946924676443</v>
       </c>
       <c r="M24" t="n">
-        <v>853.2112150416077</v>
+        <v>679.5863020207058</v>
       </c>
       <c r="N24" t="n">
-        <v>1256.444979541619</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O24" t="n">
         <v>1395.953100567611</v>
@@ -6092,28 +6092,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1644.612429102108</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1644.612429102108</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T24" t="n">
-        <v>1430.606135870043</v>
+        <v>1599.46288053492</v>
       </c>
       <c r="U24" t="n">
-        <v>1191.03301019759</v>
+        <v>1359.889754862467</v>
       </c>
       <c r="V24" t="n">
-        <v>947.9532921012237</v>
+        <v>1116.810036766101</v>
       </c>
       <c r="W24" t="n">
-        <v>678.5547228315151</v>
+        <v>847.4114674963926</v>
       </c>
       <c r="X24" t="n">
-        <v>678.5547228315151</v>
+        <v>627.9034731130889</v>
       </c>
       <c r="Y24" t="n">
-        <v>678.5547228315151</v>
+        <v>402.2627800484165</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="E25" t="n">
         <v>34.31465285444516</v>
@@ -6150,49 +6150,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L25" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800222</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800222</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V25" t="n">
-        <v>327.5577913285213</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W25" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X25" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.118772916221</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="C26" t="n">
-        <v>34.31465285444518</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444518</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444518</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444518</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444518</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887603033</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292786</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.54859321015</v>
+        <v>1540.145185761004</v>
       </c>
       <c r="T26" t="n">
-        <v>1413.54859321015</v>
+        <v>1540.145185761004</v>
       </c>
       <c r="U26" t="n">
-        <v>1413.54859321015</v>
+        <v>1540.145185761004</v>
       </c>
       <c r="V26" t="n">
-        <v>1413.54859321015</v>
+        <v>1540.145185761004</v>
       </c>
       <c r="W26" t="n">
-        <v>1413.54859321015</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="X26" t="n">
-        <v>1050.131710084184</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="Y26" t="n">
-        <v>663.9846722877699</v>
+        <v>1198.835626341038</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>752.2254610062332</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="C27" t="n">
-        <v>752.2254610062332</v>
+        <v>560.2626621846285</v>
       </c>
       <c r="D27" t="n">
-        <v>591.4453447672649</v>
+        <v>399.4825459456603</v>
       </c>
       <c r="E27" t="n">
-        <v>417.8821408886794</v>
+        <v>225.9193420670747</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9350741837009</v>
+        <v>65.49162578431881</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889815</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L27" t="n">
-        <v>498.4142537443597</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5863020207057</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N27" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007118</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775052</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025991</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062332</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W27" t="n">
-        <v>752.2254610062332</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="X27" t="n">
-        <v>752.2254610062332</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="Y27" t="n">
-        <v>752.2254610062332</v>
+        <v>749.6749364516648</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="E28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="F28" t="n">
-        <v>84.81980876651457</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G28" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306433</v>
@@ -6405,31 +6405,31 @@
         <v>334.8576753800222</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>649.5356560421864</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="C29" t="n">
-        <v>649.5356560421864</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D29" t="n">
-        <v>308.3516564035729</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E29" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F29" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K29" t="n">
         <v>253.8975067193751</v>
@@ -6493,22 +6493,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U29" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V29" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W29" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="X29" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="Y29" t="n">
-        <v>1027.401555413735</v>
+        <v>1195.201146295158</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444518</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L30" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M30" t="n">
-        <v>853.2112150416077</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N30" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007118</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025991</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062332</v>
+        <v>1392.073078783108</v>
       </c>
       <c r="W30" t="n">
-        <v>482.8268917365245</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
@@ -6657,16 +6657,16 @@
         <v>334.8576753800222</v>
       </c>
       <c r="V31" t="n">
-        <v>334.8576753800222</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.794881312374</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="C32" t="n">
-        <v>1166.794881312374</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="D32" t="n">
-        <v>1166.794881312374</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="E32" t="n">
-        <v>791.5636570076908</v>
+        <v>954.3543806211613</v>
       </c>
       <c r="F32" t="n">
         <v>791.5636570076908</v>
@@ -6700,16 +6700,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193752</v>
       </c>
       <c r="L32" t="n">
         <v>525.5283691389723</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
@@ -6727,25 +6727,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1530.21176443834</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1530.21176443834</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U32" t="n">
-        <v>1530.21176443834</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V32" t="n">
-        <v>1530.21176443834</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W32" t="n">
-        <v>1530.21176443834</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X32" t="n">
-        <v>1166.794881312374</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y32" t="n">
-        <v>1166.794881312374</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>561.3031895137356</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C33" t="n">
-        <v>371.8909152466993</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D33" t="n">
-        <v>211.110799007731</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E33" t="n">
-        <v>194.7423691372011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F33" t="n">
         <v>34.31465285444516</v>
@@ -6779,13 +6779,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3287381944633</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>395.2338702498415</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M33" t="n">
         <v>770.1254798029031</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1703.202222943084</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1524.127953509628</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775052</v>
+        <v>1310.121660277563</v>
       </c>
       <c r="U33" t="n">
-        <v>1234.878304775052</v>
+        <v>1070.54853460511</v>
       </c>
       <c r="V33" t="n">
-        <v>1234.878304775052</v>
+        <v>827.4688165087439</v>
       </c>
       <c r="W33" t="n">
-        <v>965.479735505343</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="X33" t="n">
-        <v>965.479735505343</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="Y33" t="n">
-        <v>739.8390424406707</v>
+        <v>558.0702472390352</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G34" t="n">
         <v>34.31465285444516</v>
@@ -6891,19 +6891,19 @@
         <v>334.8576753800222</v>
       </c>
       <c r="U34" t="n">
-        <v>43.32097474015944</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444516</v>
+        <v>204.0671920298242</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369.9489506776823</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="C35" t="n">
-        <v>369.9489506776823</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D35" t="n">
-        <v>369.9489506776823</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E35" t="n">
-        <v>369.9489506776823</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F35" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G35" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
         <v>34.31465285444516</v>
@@ -6937,10 +6937,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
         <v>525.528369138972</v>
@@ -6973,16 +6973,16 @@
         <v>1715.732642722258</v>
       </c>
       <c r="V35" t="n">
-        <v>1391.61164917766</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W35" t="n">
-        <v>1050.302089757694</v>
+        <v>1580.830783660438</v>
       </c>
       <c r="X35" t="n">
-        <v>756.0959884740963</v>
+        <v>1580.830783660438</v>
       </c>
       <c r="Y35" t="n">
-        <v>369.9489506776823</v>
+        <v>1194.683745864024</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1042.157527460942</v>
+        <v>397.290131000067</v>
       </c>
       <c r="C36" t="n">
-        <v>879.7061105840106</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D36" t="n">
-        <v>718.9259943450423</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E36" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F36" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M36" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N36" t="n">
-        <v>1082.820066520716</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
-        <v>1395.953100567611</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U36" t="n">
-        <v>1715.732642722258</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V36" t="n">
-        <v>1715.732642722258</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W36" t="n">
-        <v>1446.33407345255</v>
+        <v>616.7981253833707</v>
       </c>
       <c r="X36" t="n">
-        <v>1446.33407345255</v>
+        <v>397.290131000067</v>
       </c>
       <c r="Y36" t="n">
-        <v>1220.693380387877</v>
+        <v>397.290131000067</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T37" t="n">
-        <v>1706.726320836544</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="U37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1715.732642722259</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="C38" t="n">
-        <v>1715.732642722259</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="D38" t="n">
-        <v>1574.066850645721</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E38" t="n">
-        <v>1198.835626341038</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F38" t="n">
         <v>791.5636570076908</v>
@@ -7174,16 +7174,16 @@
         <v>34.31465285444518</v>
       </c>
       <c r="J38" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193758</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389723</v>
+        <v>525.5283691389727</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292786</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
@@ -7198,28 +7198,28 @@
         <v>1715.732642722259</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722259</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722259</v>
+        <v>1169.42955637924</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722259</v>
+        <v>1169.42955637924</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722259</v>
+        <v>1169.42955637924</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722259</v>
+        <v>1169.42955637924</v>
       </c>
       <c r="Y38" t="n">
-        <v>1715.732642722259</v>
+        <v>1169.42955637924</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1044.70805201551</v>
+        <v>837.9892995535727</v>
       </c>
       <c r="C39" t="n">
-        <v>855.2957777484737</v>
+        <v>648.5770252865364</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>487.7969090475681</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>314.2337051689825</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444518</v>
       </c>
       <c r="J39" t="n">
-        <v>34.31465285444518</v>
+        <v>54.40930111025872</v>
       </c>
       <c r="K39" t="n">
-        <v>34.31465285444518</v>
+        <v>112.3287381944637</v>
       </c>
       <c r="L39" t="n">
-        <v>304.6946924676441</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M39" t="n">
-        <v>679.5863020207057</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722259</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1676.21854966707</v>
       </c>
       <c r="S39" t="n">
-        <v>1448.884598007118</v>
+        <v>1497.144280233614</v>
       </c>
       <c r="T39" t="n">
-        <v>1448.884598007118</v>
+        <v>1283.137987001549</v>
       </c>
       <c r="U39" t="n">
-        <v>1448.884598007118</v>
+        <v>1283.137987001549</v>
       </c>
       <c r="V39" t="n">
-        <v>1448.884598007118</v>
+        <v>1283.137987001549</v>
       </c>
       <c r="W39" t="n">
-        <v>1448.884598007118</v>
+        <v>1283.137987001549</v>
       </c>
       <c r="X39" t="n">
-        <v>1448.884598007118</v>
+        <v>1063.629992618245</v>
       </c>
       <c r="Y39" t="n">
-        <v>1223.243904942445</v>
+        <v>837.9892995535727</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H40" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I40" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J40" t="n">
         <v>34.31465285444518</v>
@@ -7356,28 +7356,28 @@
         <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>334.8576753800222</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="S40" t="n">
-        <v>334.8576753800222</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="T40" t="n">
-        <v>334.8576753800222</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="U40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="V40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="W40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="X40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.0575795021006</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C41" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D41" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E41" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F41" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887603033</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292786</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V41" t="n">
-        <v>1391.611649177661</v>
+        <v>1194.933065882494</v>
       </c>
       <c r="W41" t="n">
-        <v>1391.611649177661</v>
+        <v>1194.933065882494</v>
       </c>
       <c r="X41" t="n">
-        <v>1028.194766051695</v>
+        <v>831.516182756528</v>
       </c>
       <c r="Y41" t="n">
-        <v>765.9234788736494</v>
+        <v>455.9293591844538</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>257.1861986718522</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C42" t="n">
-        <v>257.1861986718522</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D42" t="n">
-        <v>257.1861986718522</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E42" t="n">
-        <v>257.1861986718522</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F42" t="n">
-        <v>257.1861986718522</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889815</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443597</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M42" t="n">
-        <v>873.3058632974213</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N42" t="n">
-        <v>1082.820066520717</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O42" t="n">
-        <v>1395.953100567611</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.193464940061</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1448.884598007118</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T42" t="n">
-        <v>1234.878304775052</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U42" t="n">
-        <v>995.3051791025991</v>
+        <v>1296.189227669782</v>
       </c>
       <c r="V42" t="n">
-        <v>752.2254610062332</v>
+        <v>1053.109509573416</v>
       </c>
       <c r="W42" t="n">
-        <v>482.8268917365245</v>
+        <v>783.7109403037075</v>
       </c>
       <c r="X42" t="n">
-        <v>482.8268917365245</v>
+        <v>783.7109403037075</v>
       </c>
       <c r="Y42" t="n">
-        <v>257.1861986718522</v>
+        <v>558.0702472390352</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
         <v>105.4471208306433</v>
@@ -7596,25 +7596,25 @@
         <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>257.5493975016238</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>34.31465285444518</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1715.732642722259</v>
+        <v>303.7457988777627</v>
       </c>
       <c r="C44" t="n">
-        <v>1715.732642722259</v>
+        <v>303.7457988777627</v>
       </c>
       <c r="D44" t="n">
-        <v>1374.548643083645</v>
+        <v>303.7457988777627</v>
       </c>
       <c r="E44" t="n">
-        <v>999.3174187789624</v>
+        <v>303.7457988777627</v>
       </c>
       <c r="F44" t="n">
-        <v>791.5636570076908</v>
+        <v>303.7457988777627</v>
       </c>
       <c r="G44" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887603033</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292786</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722259</v>
+        <v>1067.758736045726</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.732642722259</v>
+        <v>1067.758736045726</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.732642722259</v>
+        <v>1067.758736045726</v>
       </c>
       <c r="Y44" t="n">
-        <v>1715.732642722259</v>
+        <v>681.6116982493115</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.4582728022996</v>
+        <v>304.2910388095888</v>
       </c>
       <c r="C45" t="n">
-        <v>150.0459985352634</v>
+        <v>304.2910388095888</v>
       </c>
       <c r="D45" t="n">
-        <v>34.31465285444518</v>
+        <v>304.2910388095888</v>
       </c>
       <c r="E45" t="n">
-        <v>34.31465285444518</v>
+        <v>304.2910388095888</v>
       </c>
       <c r="F45" t="n">
-        <v>34.31465285444518</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G45" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L45" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M45" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N45" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O45" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T45" t="n">
-        <v>1536.658373288803</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>1297.08524761635</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V45" t="n">
-        <v>1054.005529519984</v>
+        <v>752.2254610062325</v>
       </c>
       <c r="W45" t="n">
-        <v>784.6069602502756</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="X45" t="n">
-        <v>565.098965866972</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.4582728022996</v>
+        <v>482.8268917365239</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.6229307328436</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C46" t="n">
-        <v>111.6229307328436</v>
+        <v>166.7191087416663</v>
       </c>
       <c r="D46" t="n">
-        <v>111.6229307328436</v>
+        <v>166.7191087416663</v>
       </c>
       <c r="E46" t="n">
-        <v>111.6229307328436</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>111.6229307328436</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>111.6229307328436</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>111.6229307328436</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
         <v>105.4471208306433</v>
@@ -7836,22 +7836,22 @@
         <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>111.6229307328436</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>111.6229307328436</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V46" t="n">
-        <v>111.6229307328436</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W46" t="n">
-        <v>111.6229307328436</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X46" t="n">
-        <v>111.6229307328436</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y46" t="n">
-        <v>111.6229307328436</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K12" t="n">
-        <v>67.15086399372898</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8786,10 +8786,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>30.98517405756574</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.67636752131753</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.40936639976317</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
@@ -9020,13 +9020,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
-        <v>171.2977978017204</v>
+        <v>79.84408287020756</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9251,10 +9251,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880645</v>
       </c>
       <c r="N18" t="n">
-        <v>114.9375340526878</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9482,7 +9482,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>67.15086399372856</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,13 +9716,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.40936639976317</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>64.92584373552869</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
@@ -9731,7 +9731,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
-        <v>79.84408287020719</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -9953,16 +9953,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454986</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>106.1005567880651</v>
+        <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10193,7 +10193,7 @@
         <v>61.40936639976317</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455032</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,7 +10202,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>135.2351585535096</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,16 +10427,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K33" t="n">
-        <v>67.15086399372856</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>301.77688131</v>
+        <v>217.8518962203993</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10676,16 +10676,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890786</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>8.646382090491642</v>
+        <v>67.15086399372902</v>
       </c>
       <c r="L39" t="n">
-        <v>227.6529352291877</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315043</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11071,7 +11071,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>283.4008070189657</v>
+        <v>283.4008070189656</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>114.9375340526878</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253759</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315043</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11387,13 +11387,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>102.1412644882575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
         <v>44.67636752131754</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>75.9148382900691</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>171.1714138111829</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
@@ -23323,7 +23323,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>12.64817367290198</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>171.5809797063624</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23402,10 +23402,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23433,10 +23433,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>155.7061618107478</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.87406367087306</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23506,13 +23506,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>397.0380779536068</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>277.3210083733403</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>61.91053974263291</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>117.8594189400237</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>132.7598825453682</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>155.7061618107479</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23709,7 +23709,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>215.4505680226288</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>97.87586893661867</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>168.4976559200373</v>
+        <v>149.5767794015984</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>160.8281285726393</v>
+        <v>94.70161028456072</v>
       </c>
       <c r="H19" t="n">
         <v>160.0829940331247</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>70.34263086034701</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>81.02498203362171</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.60390485305851</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>6.904708865483769</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>24.58419038258714</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0023972007068</v>
+        <v>168.5738200848356</v>
       </c>
       <c r="U22" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
@@ -24214,16 +24214,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>270.9155874675474</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24256,25 +24256,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>63.27507515709124</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>16.48702604492009</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>96.75916573428019</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>65.14094611261069</v>
       </c>
       <c r="F25" t="n">
         <v>138.9268822184467</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24417,16 +24417,16 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
-        <v>237.8821299734639</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>100.9194185200207</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
@@ -24454,13 +24454,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>20.88021507057357</v>
       </c>
       <c r="T26" t="n">
         <v>216.1639724458418</v>
@@ -24505,13 +24505,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>126.2058430819996</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.1091400404176</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -24612,10 +24612,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>9.44430370175067</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>160.0829940331247</v>
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>24.58419038258715</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>21.52567778159568</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>100.1822785479997</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24761,16 +24761,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>157.4033470313715</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>121.8638641836774</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24897,13 +24897,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.6925701972566</v>
+        <v>237.882129973464</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>242.0364332626777</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>11.04612796113517</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
         <v>216.1639724458418</v>
@@ -24982,10 +24982,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>155.6228262679751</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>74.49092194748607</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>160.0829940331247</v>
@@ -25131,10 +25131,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>159.1387551167682</v>
       </c>
       <c r="V34" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25162,16 +25162,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
         <v>185.5090622027478</v>
@@ -25213,13 +25213,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>204.3436233545646</v>
       </c>
       <c r="X35" t="n">
-        <v>68.51867402394475</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>26.69124881620388</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>132.6315213103781</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>197.5230254864548</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>224.5214983802155</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>24.1662295071815</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.77708540423168</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1773944157285</v>
@@ -25535,7 +25535,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25566,13 +25566,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>82.56286578368641</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R40" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>224.1841888012565</v>
@@ -25605,7 +25605,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213336334641</v>
+        <v>165.477933253454</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -25642,7 +25642,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
@@ -25678,7 +25678,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.1639724458418</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.6369931121849</v>
+        <v>10.45461208209645</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>126.4713867567302</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>120.5916813423909</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>147.6489937016421</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734639</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>197.5230254864546</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>150.6617247036241</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
         <v>185.5090622027478</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>44.59828285256854</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>120.3646114688357</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26025,13 +26025,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>10.59572988387609</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -26043,7 +26043,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
-        <v>68.89797421573255</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
         <v>74.58429473553585</v>
@@ -26076,7 +26076,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213336334641</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608456.1539420254</v>
+        <v>608456.1539420252</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608456.1539420254</v>
+        <v>608456.1539420252</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608456.1539420253</v>
+        <v>608456.1539420249</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608456.1539420253</v>
+        <v>608456.1539420252</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608456.1539420253</v>
+        <v>608456.1539420252</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608456.1539420254</v>
+        <v>608456.153942025</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608456.1539420253</v>
+        <v>608456.1539420252</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608456.1539420254</v>
+        <v>608456.1539420253</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>608456.1539420252</v>
+        <v>608456.153942025</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608456.1539420254</v>
+        <v>608456.153942025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852873</v>
+        <v>551207.4969852874</v>
       </c>
       <c r="C2" t="n">
         <v>551207.4969852872</v>
       </c>
       <c r="D2" t="n">
-        <v>551207.4969852872</v>
+        <v>551207.4969852874</v>
       </c>
       <c r="E2" t="n">
+        <v>313077.6564078294</v>
+      </c>
+      <c r="F2" t="n">
         <v>313077.6564078295</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>313077.6564078294</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>313077.6564078295</v>
-      </c>
-      <c r="H2" t="n">
-        <v>313077.6564078294</v>
       </c>
       <c r="I2" t="n">
         <v>313077.6564078295</v>
       </c>
       <c r="J2" t="n">
-        <v>313077.6564078295</v>
+        <v>313077.6564078294</v>
       </c>
       <c r="K2" t="n">
-        <v>313077.6564078293</v>
+        <v>313077.6564078294</v>
       </c>
       <c r="L2" t="n">
         <v>313077.6564078294</v>
       </c>
       <c r="M2" t="n">
-        <v>313077.6564078293</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="N2" t="n">
+        <v>313077.6564078294</v>
+      </c>
+      <c r="O2" t="n">
         <v>313077.6564078295</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>313077.6564078294</v>
-      </c>
-      <c r="P2" t="n">
-        <v>313077.6564078295</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174926</v>
+        <v>497053.1518174923</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.092592171136463e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742394</v>
+        <v>106891.8593742393</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="C4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="D4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="E4" t="n">
         <v>45238.1088129386</v>
       </c>
       <c r="F4" t="n">
-        <v>45238.10881293861</v>
+        <v>45238.1088129386</v>
       </c>
       <c r="G4" t="n">
         <v>45238.1088129386</v>
@@ -26453,13 +26453,13 @@
         <v>45238.1088129386</v>
       </c>
       <c r="N4" t="n">
+        <v>45238.10881293861</v>
+      </c>
+      <c r="O4" t="n">
         <v>45238.1088129386</v>
       </c>
-      <c r="O4" t="n">
-        <v>45238.10881293861</v>
-      </c>
       <c r="P4" t="n">
-        <v>45238.10881293862</v>
+        <v>45238.1088129386</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="K5" t="n">
         <v>36091.33751189047</v>
@@ -26508,10 +26508,10 @@
         <v>36091.33751189047</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92634.26459121209</v>
+        <v>92589.60074916022</v>
       </c>
       <c r="C6" t="n">
-        <v>92634.26459121198</v>
+        <v>92589.60074915999</v>
       </c>
       <c r="D6" t="n">
-        <v>92634.26459121198</v>
+        <v>92589.60074916022</v>
       </c>
       <c r="E6" t="n">
-        <v>-265304.9417344921</v>
+        <v>-274874.7991996421</v>
       </c>
       <c r="F6" t="n">
-        <v>231748.2100830004</v>
+        <v>222178.3526178501</v>
       </c>
       <c r="G6" t="n">
-        <v>231748.2100830004</v>
+        <v>222178.3526178501</v>
       </c>
       <c r="H6" t="n">
-        <v>231748.2100830004</v>
+        <v>222178.3526178502</v>
       </c>
       <c r="I6" t="n">
-        <v>231748.2100830004</v>
+        <v>222178.3526178502</v>
       </c>
       <c r="J6" t="n">
-        <v>231748.2100830005</v>
+        <v>222178.3526178501</v>
       </c>
       <c r="K6" t="n">
-        <v>231748.2100830002</v>
+        <v>222178.3526178501</v>
       </c>
       <c r="L6" t="n">
-        <v>231748.2100830004</v>
+        <v>222178.3526178501</v>
       </c>
       <c r="M6" t="n">
-        <v>124856.3507087608</v>
+        <v>115286.4932436109</v>
       </c>
       <c r="N6" t="n">
-        <v>231748.2100830005</v>
+        <v>222178.3526178501</v>
       </c>
       <c r="O6" t="n">
-        <v>231748.2100830004</v>
+        <v>222178.3526178502</v>
       </c>
       <c r="P6" t="n">
-        <v>231748.2100830005</v>
+        <v>222178.3526178501</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
         <v>459.2752909409237</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
         <v>428.9331606805646</v>
@@ -26828,10 +26828,10 @@
         <v>428.9331606805647</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.126366253371932e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.126366253371932e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K11" t="n">
-        <v>234.8604594573931</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L11" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O11" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R11" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584443</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146304</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420992</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J12" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K12" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9298629953381</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O12" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P12" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q12" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L13" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
       </c>
       <c r="P13" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R13" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S13" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573931</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L14" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O14" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R14" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584443</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146304</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420992</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K15" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9298629953381</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O15" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q15" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
       </c>
       <c r="P16" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R16" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O18" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32405,7 +32405,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,19 +32414,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R19" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M21" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,16 +32575,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S21" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32642,7 +32642,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,19 +32651,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,43 +32703,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O24" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,19 +32888,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R25" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K11" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>58.50448190323736</v>
+        <v>162.7270914936592</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P12" t="n">
-        <v>231.5559236085354</v>
+        <v>56.17722358742178</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.45371493151261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L13" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692043</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O13" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>162.7270914936592</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>232.3710088971613</v>
+        <v>140.9172939656483</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>91.45371493151261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692043</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K18" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>378.678393487941</v>
+        <v>183.0020689660055</v>
       </c>
       <c r="N18" t="n">
-        <v>211.6305083063592</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K21" t="n">
-        <v>58.50448190323692</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M21" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
         <v>231.5559236085354</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518972</v>
+        <v>110.3840596307843</v>
       </c>
       <c r="M24" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
-        <v>140.9172939656481</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405822</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>183.0020689660061</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
         <v>407.3068328282941</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405868</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518972</v>
@@ -36922,7 +36922,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>231.928132807181</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867617</v>
@@ -36931,7 +36931,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>58.50448190323692</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
-        <v>378.678393487941</v>
+        <v>294.7534083983404</v>
       </c>
       <c r="N33" t="n">
         <v>407.3068328282941</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>162.7270914936593</v>
@@ -37396,16 +37396,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>211.6305083063587</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P36" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189348</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>58.50448190323737</v>
       </c>
       <c r="L39" t="n">
-        <v>273.1111511244434</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
         <v>378.678393487941</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119712</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
@@ -37791,7 +37791,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O41" t="n">
         <v>277.1250097811783</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -37870,7 +37870,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>211.6305083063592</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867617</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151266</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119712</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>162.7270914936593</v>
@@ -38107,13 +38107,13 @@
         <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>407.3068328282941</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
-        <v>127.3333140181136</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
